--- a/DateBase/orders/Dang Nguyen_2025-5-6.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-6.xlsx
@@ -779,6 +779,9 @@
       <c r="C41" t="str">
         <v>549_虞美人 混色_Icelandic Poppy_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -840,7 +843,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>030702025111181810109910101010151161015151515515301051051035201010100</v>
+        <v>030702025111181810109910101010151161015151515515301051051035201010105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-6.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-6.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -783,9 +783,92 @@
         <v>5</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>7</v>
+      </c>
+      <c r="C42" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
+      </c>
+      <c r="F46" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>1</v>
+      </c>
+      <c r="C48" t="str">
+        <v>101_绣球秋红_Hydrangea Vintage Red_Hydrangea L._1stem</v>
+      </c>
+      <c r="F48" t="str">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>101_绣球秋红_Hydrangea Vintage Red_Hydrangea L._1stem</v>
+      </c>
+      <c r="F49" t="str">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>101_绣球秋红_Hydrangea Vintage Red_Hydrangea L._1stem</v>
+      </c>
+      <c r="F50" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -843,7 +926,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>030702025111181810109910101010151161015151515515301051051035201010105</v>
+        <v>0307020251111818101099101010101511610151515155153010510510352010101055155102010756560</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-6.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-6.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -865,10 +865,51 @@
       <c r="A51" t="str">
         <v>2</v>
       </c>
+      <c r="C51" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F51" t="str">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>410_丁香花 白_lilac white_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>743_永生吊米红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>3</v>
+      </c>
+      <c r="C55" t="str">
+        <v>635_干花安娜白_undefined_undefined_1stem</v>
+      </c>
+      <c r="F55" t="str">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L55"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -926,7 +967,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0307020251111818101099101010101511610151515155153010510510352010101055155102010756560</v>
+        <v>0307020251111818101099101010101511610151515155153010510510352010101055155102010756562410207100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-6.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-6.xlsx
@@ -969,6 +969,9 @@
       <c r="G2" t="str">
         <v>0307020251111818101099101010101511610151515155153010510510352010101055155102010756562410207100</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
